--- a/DOC/WBS/当番表.xlsx
+++ b/DOC/WBS/当番表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EB3727-942B-4BE9-BE23-5B3EA266F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A413DC-9FC4-472E-9BE9-2E688F23CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BD9D6AE-95E3-44FA-9F08-5ED003B19781}"/>
+    <workbookView xWindow="1845" yWindow="75" windowWidth="25605" windowHeight="14880" xr2:uid="{1BD9D6AE-95E3-44FA-9F08-5ED003B19781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>予定表</t>
     <rPh sb="0" eb="2">
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -272,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,25 +593,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE31DC5-3B03-40FD-AB4D-D03EC802F91E}">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="45" width="3.625" customWidth="1"/>
+    <col min="3" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -639,25 +643,8 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -694,98 +681,47 @@
       <c r="M3" s="1">
         <v>27</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
+      <c r="O3" s="1">
         <v>4</v>
       </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3">
+      <c r="P3" s="1">
         <v>6</v>
       </c>
-      <c r="T3">
-        <v>7</v>
-      </c>
-      <c r="U3">
+      <c r="Q3" s="1">
         <v>8</v>
       </c>
-      <c r="V3">
-        <v>9</v>
-      </c>
-      <c r="W3">
-        <v>10</v>
-      </c>
-      <c r="X3">
+      <c r="R3" s="1">
         <v>11</v>
       </c>
-      <c r="Y3">
-        <v>12</v>
-      </c>
-      <c r="Z3">
+      <c r="S3" s="1">
         <v>13</v>
       </c>
-      <c r="AA3">
-        <v>14</v>
-      </c>
-      <c r="AB3">
+      <c r="T3" s="1">
         <v>15</v>
       </c>
-      <c r="AC3">
-        <v>16</v>
-      </c>
-      <c r="AD3">
-        <v>17</v>
-      </c>
-      <c r="AE3">
+      <c r="U3" s="1">
         <v>18</v>
       </c>
-      <c r="AF3">
-        <v>19</v>
-      </c>
-      <c r="AG3">
+      <c r="V3" s="1">
         <v>20</v>
       </c>
-      <c r="AH3">
-        <v>21</v>
-      </c>
-      <c r="AI3">
+      <c r="W3" s="1">
         <v>22</v>
       </c>
-      <c r="AJ3">
-        <v>23</v>
-      </c>
-      <c r="AK3">
-        <v>24</v>
-      </c>
-      <c r="AL3">
+      <c r="X3" s="1">
         <v>25</v>
       </c>
-      <c r="AM3">
-        <v>26</v>
-      </c>
-      <c r="AN3">
+      <c r="Y3" s="1">
         <v>27</v>
       </c>
-      <c r="AO3">
-        <v>28</v>
-      </c>
-      <c r="AP3">
+      <c r="Z3" s="1">
         <v>29</v>
       </c>
-      <c r="AQ3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -822,8 +758,21 @@
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -860,8 +809,21 @@
       <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -879,8 +841,21 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:43" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -898,8 +873,21 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:43" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -917,26 +905,72 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -951,8 +985,21 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -967,8 +1014,21 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -983,8 +1043,21 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
@@ -999,8 +1072,21 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1014,7 +1100,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1028,7 +1114,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1142,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:AQ2"/>
+    <mergeCell ref="N2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/WBS/当番表.xlsx
+++ b/DOC/WBS/当番表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A413DC-9FC4-472E-9BE9-2E688F23CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73FC41-C110-478A-8F4E-E116720A624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="75" windowWidth="25605" windowHeight="14880" xr2:uid="{1BD9D6AE-95E3-44FA-9F08-5ED003B19781}"/>
+    <workbookView xWindow="345" yWindow="240" windowWidth="27315" windowHeight="15360" xr2:uid="{1BD9D6AE-95E3-44FA-9F08-5ED003B19781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
   <si>
     <t>予定表</t>
     <rPh sb="0" eb="2">
@@ -593,25 +593,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE31DC5-3B03-40FD-AB4D-D03EC802F91E}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="28" width="3.625" customWidth="1"/>
+    <col min="3" max="32" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,8 +643,12 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -691,37 +695,49 @@
         <v>6</v>
       </c>
       <c r="Q3" s="1">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1">
         <v>8</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>11</v>
       </c>
-      <c r="S3" s="1">
-        <v>13</v>
-      </c>
       <c r="T3" s="1">
+        <v>13</v>
+      </c>
+      <c r="U3" s="1">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1">
         <v>15</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <v>18</v>
       </c>
-      <c r="V3" s="1">
+      <c r="X3" s="1">
         <v>20</v>
       </c>
-      <c r="W3" s="1">
+      <c r="Y3" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="1">
         <v>22</v>
       </c>
-      <c r="X3" s="1">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="1">
         <v>27</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AC3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -758,21 +774,57 @@
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -809,21 +861,57 @@
       <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -854,8 +942,12 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -886,8 +978,12 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -918,8 +1014,12 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -935,42 +1035,46 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="L9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+      <c r="X9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
@@ -978,28 +1082,50 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1008,85 +1134,151 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="X12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1100,7 +1292,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1114,7 +1306,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -1142,7 +1334,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="N2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
